--- a/test/test2.xlsx
+++ b/test/test2.xlsx
@@ -1,32 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2527263eb91b0b56/Desktop/TESI MAGISTRALE/ProveBenchmarking/ClusterVNS/test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_3F95579A5BE0DA37D3BA3911595ED87656CD454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C36B38-CEE9-4BD3-9419-9C7DCC5E9395}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="3600" yWindow="870" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>NPoints</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>C:\Users\giuse\OneDrive\Desktop\TESI MAGISTRALE\ProveBenchmarking\ClusterVNS\./Instanze/A-n32-k5.txt</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>hmax</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>len_taboo</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>improvement</t>
+  </si>
+  <si>
+    <t>cross_over</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>('3bis', False)</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>feasible</t>
+  </si>
+  <si>
+    <t>time_execution</t>
+  </si>
+  <si>
+    <t>averageValue</t>
+  </si>
+  <si>
+    <t>WorstValue</t>
+  </si>
+  <si>
+    <t>BestValue</t>
+  </si>
+  <si>
+    <t>local_search_metaheuristic</t>
+  </si>
+  <si>
+    <t>first_solution_strategy</t>
+  </si>
+  <si>
+    <t>time_limit_seconds</t>
+  </si>
+  <si>
+    <t>startRoutes</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>orTools</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +137,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +189,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +253,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +298,752 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="61.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>856.15464648110515</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>13.9043183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>855.34750250975333</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10.7487248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>879.50281091687964</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>11.311661300000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>855.34750250975355</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11.723692099999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>884.76831819530764</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10.933616400000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>856.15464648110503</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>11.116702099999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>875.75386241821843</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>11.79631839999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>856.15464648110515</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>11.8611662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>865.31966109133509</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>13.2272135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>877.36071627445835</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>11.3401794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>870.05286340640544</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>10.726785100000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>873.80181190506664</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>11.2645249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>865.31966109133521</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>10.3383877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>853.75611170992124</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>11.20257620000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>879.28079887008846</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>10.54615029999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>875.68018626212859</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>10.868088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>862.3565654531177</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>11.339104499999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>868.62472747130846</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>9.6941235999999833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>868.76026253126133</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>10.878528099999979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>879.50281091687998</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>9.5516901999999959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>910.87821205849968</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>9.6286224000000118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>875.68018626212859</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>9.7356154000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>877.12664780884438</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>10.96657019999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>891.71164273273575</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>10.568651300000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>931.63231882855393</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>10.723374699999971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>865.31966109133498</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>10.69209229999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>871.15231582284537</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>9.5199076000000105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>868.6494510512332</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>11.063940699999989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>845.4177475288692</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>11.835434300000029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>809.53655740008878</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>10.81387289999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>870.20349511872234</v>
+      </c>
+      <c r="E39">
+        <v>931.63231882855393</v>
+      </c>
+      <c r="F39">
+        <v>809.53655740008878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>782</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1.027435999999966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>782</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1.01224719999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>782</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1.0123302999999739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>782</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1.012586800000008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>782</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1.0125014999999851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>782</v>
+      </c>
+      <c r="E51">
+        <v>782</v>
+      </c>
+      <c r="F51">
+        <v>782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test/test2.xlsx
+++ b/test/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2527263eb91b0b56/Desktop/TESI MAGISTRALE/ProveBenchmarking/ClusterVNS/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_3F95579A5BE0DA37D3BA3911595ED87656CD454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26C36B38-CEE9-4BD3-9419-9C7DCC5E9395}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_5D01959D5BC0D51AAB992611595ED87656CD2E13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7A0E2A4-B3EE-4668-A2F3-B94F9FB31ABA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3600" yWindow="870" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>file</t>
   </si>
@@ -31,7 +31,7 @@
     <t>capacity</t>
   </si>
   <si>
-    <t>C:\Users\giuse\OneDrive\Desktop\TESI MAGISTRALE\ProveBenchmarking\ClusterVNS\./Instanze/A-n32-k5.txt</t>
+    <t>C:\Users\giuse\OneDrive\Desktop\TESI MAGISTRALE\ProveBenchmarking\ClusterVNS\./Instanze/X-n101-k25.txt</t>
   </si>
   <si>
     <t>T</t>
@@ -76,13 +76,28 @@
     <t>time_execution</t>
   </si>
   <si>
+    <t>WorstValue</t>
+  </si>
+  <si>
+    <t>BestValue</t>
+  </si>
+  <si>
     <t>averageValue</t>
   </si>
   <si>
-    <t>WorstValue</t>
-  </si>
-  <si>
-    <t>BestValue</t>
+    <t>medianValue</t>
+  </si>
+  <si>
+    <t>WorstTime</t>
+  </si>
+  <si>
+    <t>bestTime</t>
+  </si>
+  <si>
+    <t>averageTime</t>
+  </si>
+  <si>
+    <t>medianTimes</t>
   </si>
   <si>
     <t>local_search_metaheuristic</t>
@@ -463,26 +478,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="61.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,18 +508,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -533,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -562,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -581,366 +596,396 @@
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>856.15464648110515</v>
+        <v>31521.8748889202</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>13.9043183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67.135923999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>855.34750250975333</v>
+        <v>31863.518660471109</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>10.7487248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66.845806999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>879.50281091687964</v>
+        <v>31940.231327252252</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>11.311661300000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.920661899999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>855.34750250975355</v>
+        <v>31538.832141774739</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>11.723692099999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59.107027400000021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>884.76831819530764</v>
+        <v>32396.899736429928</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>10.933616400000011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.089651199999963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>856.15464648110503</v>
+        <v>31822.028165094041</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>11.116702099999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68.184629599999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>875.75386241821843</v>
+        <v>32541.84344138304</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>11.79631839999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64.043347600000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>856.15464648110515</v>
+        <v>32292.70509807469</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>11.8611662</v>
+        <v>54.893015100000007</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>865.31966109133509</v>
+        <v>32467.769519788159</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>13.2272135</v>
+        <v>63.686666000000002</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>877.36071627445835</v>
+        <v>33117.767857908431</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>11.3401794</v>
+        <v>54.981181500000048</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>870.05286340640544</v>
+        <v>33214.470285139003</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>10.726785100000001</v>
+        <v>56.987296499999957</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>873.80181190506664</v>
+        <v>31785.621000653129</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>11.2645249</v>
+        <v>72.75534540000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>865.31966109133521</v>
+        <v>31884.84851836989</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>10.3383877</v>
+        <v>61.049624199999933</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>853.75611170992124</v>
+        <v>31744.355982812551</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>11.20257620000001</v>
+        <v>55.402019500000051</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>879.28079887008846</v>
+        <v>31844.998080637019</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>10.54615029999999</v>
+        <v>34.635026900000071</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>875.68018626212859</v>
+        <v>31991.319082989241</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>10.868088</v>
+        <v>31.363696800000071</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>862.3565654531177</v>
+        <v>32180.181774046239</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>11.339104499999991</v>
+        <v>26.194451599999979</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>868.62472747130846</v>
+        <v>32274.22155864448</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>9.6941235999999833</v>
+        <v>26.680954299999939</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>868.76026253126133</v>
+        <v>32534.012418863269</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>10.878528099999979</v>
+        <v>25.487395000000109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>879.50281091687998</v>
+        <v>32986.348678107468</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>9.5516901999999959</v>
+        <v>26.103281699999911</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>910.87821205849968</v>
+        <v>32840.314038209697</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>9.6286224000000118</v>
+        <v>25.829452099999799</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>875.68018626212859</v>
+        <v>31639.59815604156</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>9.7356154000000004</v>
+        <v>27.60601389999988</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>877.12664780884438</v>
+        <v>32284.759886566131</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>10.96657019999998</v>
+        <v>26.260623800000079</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>891.71164273273575</v>
+        <v>32774.013449347964</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>10.568651300000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28.343381700000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>931.63231882855393</v>
+        <v>33059.598327723957</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>10.723374699999971</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24.121693599999841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>865.31966109133498</v>
+        <v>31914.050702015651</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>10.69209229999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25.029330099999921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>871.15231582284537</v>
+        <v>33302.926029047507</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>9.5199076000000105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.595009399999981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>868.6494510512332</v>
+        <v>32276.039116379849</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>11.063940699999989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26.828059400000029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>845.4177475288692</v>
+        <v>31886.75724826596</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>11.835434300000029</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25.501469799999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>809.53655740008878</v>
+        <v>31987.289898579031</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>10.81387289999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25.297519800000149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D39">
-        <v>870.20349511872234</v>
+        <v>33302.926029047507</v>
       </c>
       <c r="E39">
-        <v>931.63231882855393</v>
+        <v>31521.8748889202</v>
       </c>
       <c r="F39">
-        <v>809.53655740008878</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32263.6398356512</v>
+      </c>
+      <c r="G39">
+        <v>32227.201666345361</v>
+      </c>
+      <c r="H39">
+        <v>72.75534540000001</v>
+      </c>
+      <c r="I39">
+        <v>20.595009399999981</v>
+      </c>
+      <c r="J39">
+        <v>42.931985226666662</v>
+      </c>
+      <c r="K39">
+        <v>32.999361850000071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -948,16 +993,16 @@
         <v>15</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
@@ -976,71 +1021,101 @@
       <c r="F45" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>782</v>
+        <v>30095</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1.027435999999966</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.0534619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>782</v>
+        <v>30095</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1.01224719999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.014958799999929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>782</v>
+        <v>30095</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1.0123302999999739</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.03215080000018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>782</v>
+        <v>30095</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1.012586800000008</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.04763049999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>782</v>
+        <v>30095</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1.0125014999999851</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.049868200000221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D51">
-        <v>782</v>
+        <v>30095</v>
       </c>
       <c r="E51">
-        <v>782</v>
+        <v>30095</v>
       </c>
       <c r="F51">
-        <v>782</v>
+        <v>30095</v>
+      </c>
+      <c r="G51">
+        <v>30095</v>
+      </c>
+      <c r="H51">
+        <v>10.0534619</v>
+      </c>
+      <c r="I51">
+        <v>10.014958799999929</v>
+      </c>
+      <c r="J51">
+        <v>10.03961404000006</v>
+      </c>
+      <c r="K51">
+        <v>10.04763049999997</v>
       </c>
     </row>
   </sheetData>
